--- a/table_B.xlsx
+++ b/table_B.xlsx
@@ -404,13 +404,13 @@
         <v>2211583.059999998</v>
       </c>
       <c r="D2" t="n">
-        <v>530789.4840000001</v>
+        <v>529585.0519999999</v>
       </c>
       <c r="E2" t="n">
-        <v>1504936.485999999</v>
+        <v>2062366.548999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>40093.93398231234</v>
       </c>
     </row>
     <row r="3">
@@ -424,13 +424,13 @@
         <v>2679802.879</v>
       </c>
       <c r="D3" t="n">
-        <v>5848.440000000001</v>
+        <v>713571.9180000003</v>
       </c>
       <c r="E3" t="n">
-        <v>32640.38</v>
+        <v>2041000.039000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>46116.40611725177</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +444,13 @@
         <v>7586603.927999999</v>
       </c>
       <c r="D4" t="n">
-        <v>24951</v>
+        <v>159430.977</v>
       </c>
       <c r="E4" t="n">
-        <v>100140.054</v>
+        <v>856155.0199999997</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>157771.6919893553</v>
       </c>
     </row>
     <row r="5">
@@ -464,10 +464,10 @@
         <v>7045783.082999998</v>
       </c>
       <c r="D5" t="n">
-        <v>141178.352</v>
+        <v>202833.842</v>
       </c>
       <c r="E5" t="n">
-        <v>457208.3019999999</v>
+        <v>716389.9130000003</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -606,13 +606,13 @@
         <v>19921644.49899999</v>
       </c>
       <c r="D12" t="n">
-        <v>702740.276</v>
+        <v>1605394.789</v>
       </c>
       <c r="E12" t="n">
-        <v>2094898.221999999</v>
+        <v>5675884.521000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>243982.0320889195</v>
       </c>
     </row>
   </sheetData>
